--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2087976.99331098</v>
+        <v>2083671.870313911</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -661,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>6.396723986041656</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>187.5255871663201</v>
       </c>
-      <c r="F2" t="n">
-        <v>6.876045741711437</v>
-      </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="H2" t="n">
-        <v>96.8667131639284</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666373</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846316</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>92.73964154763148</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>53.22116080616951</v>
+      </c>
+      <c r="X3" t="n">
         <v>187.5255871663201</v>
       </c>
-      <c r="W3" t="n">
-        <v>187.5255871663201</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
       <c r="Y3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>34.10833718734084</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709382</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>52.21594625443465</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2518847340494</v>
+        <v>187.1209918438131</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>92.85788772760007</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425855</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372553</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>104.8184391081885</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -977,10 +977,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>58.74963809104485</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.32085084937498</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074843</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>143.0954042244396</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>45.38538499975623</v>
+        <v>186.4873353134244</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>360.3667397668751</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.87073484362677</v>
+        <v>77.79227984892985</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
         <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1214,7 +1214,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1223,16 +1223,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>52.99779322779244</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904886</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721433</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>20.27697994470635</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>31.68046530976816</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>39.19398801432065</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881274</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>22.65115569188744</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>54.27601060788859</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1770,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671011757</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>105.6507867899569</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>185.79339378885</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576154</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428173</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>28.54004930889236</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576146</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T21" t="n">
         <v>188.3046392154443</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428081</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,13 +2298,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>185.4048731212365</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.733841663478</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2329,13 +2329,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569552</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T24" t="n">
         <v>188.3046392154443</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>113.3214422457877</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788181733</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206807</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T27" t="n">
         <v>188.3046392154443</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465619</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>140.3829797864967</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>121.0116223990637</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T30" t="n">
         <v>188.3046392154443</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>134.7910873020746</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>94.80184639742028</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695349</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T33" t="n">
         <v>188.3046392154443</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>142.3575218158273</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>141.3831318263011</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3277,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695342</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T36" t="n">
         <v>188.3046392154443</v>
@@ -3432,7 +3432,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>113.4862783316168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0.8253826161897768</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3514,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417092</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T39" t="n">
         <v>188.3046392154443</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>133.1319933510085</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788178581</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3754,10 +3754,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>177.9413471369467</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3979,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>158.7907697006104</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>322.4426321268591</v>
+        <v>589.7227393823985</v>
       </c>
       <c r="C2" t="n">
-        <v>322.4426321268591</v>
+        <v>583.2614020227604</v>
       </c>
       <c r="D2" t="n">
-        <v>322.4426321268591</v>
+        <v>393.8416170062755</v>
       </c>
       <c r="E2" t="n">
-        <v>133.0228471103742</v>
+        <v>393.8416170062755</v>
       </c>
       <c r="F2" t="n">
-        <v>126.0773463611707</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="G2" t="n">
-        <v>112.8472117853545</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J2" t="n">
         <v>21.03371160678508</v>
@@ -4336,46 +4336,46 @@
         <v>80.81213159058969</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079186</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123833</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985586</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>734.461172602027</v>
+        <v>734.4611726020271</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262259</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="S2" t="n">
-        <v>511.862417143344</v>
+        <v>589.7227393823985</v>
       </c>
       <c r="T2" t="n">
-        <v>322.4426321268591</v>
+        <v>589.7227393823985</v>
       </c>
       <c r="U2" t="n">
-        <v>322.4426321268591</v>
+        <v>589.7227393823985</v>
       </c>
       <c r="V2" t="n">
-        <v>322.4426321268591</v>
+        <v>589.7227393823985</v>
       </c>
       <c r="W2" t="n">
-        <v>322.4426321268591</v>
+        <v>589.7227393823985</v>
       </c>
       <c r="X2" t="n">
-        <v>322.4426321268591</v>
+        <v>589.7227393823985</v>
       </c>
       <c r="Y2" t="n">
-        <v>322.4426321268591</v>
+        <v>589.7227393823985</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.0020469733056</v>
+        <v>338.7084783396673</v>
       </c>
       <c r="C3" t="n">
-        <v>15.0020469733056</v>
+        <v>338.7084783396673</v>
       </c>
       <c r="D3" t="n">
-        <v>15.0020469733056</v>
+        <v>189.774068678416</v>
       </c>
       <c r="E3" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296051</v>
       </c>
       <c r="F3" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296051</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296051</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296051</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296051</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024222</v>
       </c>
       <c r="L3" t="n">
         <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N3" t="n">
         <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476353</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017067</v>
+        <v>739.5989987017068</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264286</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264286</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="T3" t="n">
-        <v>583.2614020227604</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="U3" t="n">
-        <v>583.2614020227604</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="V3" t="n">
-        <v>393.8416170062754</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="W3" t="n">
-        <v>204.4218319897905</v>
+        <v>696.3436003762203</v>
       </c>
       <c r="X3" t="n">
-        <v>204.4218319897905</v>
+        <v>506.9238153597353</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.0020469733056</v>
+        <v>506.9238153597353</v>
       </c>
     </row>
     <row r="4">
@@ -4464,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49.45491281910444</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="C4" t="n">
-        <v>49.45491281910444</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D4" t="n">
-        <v>49.45491281910444</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E4" t="n">
-        <v>49.45491281910444</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="L4" t="n">
         <v>27.03967056230183</v>
@@ -4506,34 +4506,34 @@
         <v>67.74542702829011</v>
       </c>
       <c r="P4" t="n">
-        <v>49.45491281910444</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.45491281910444</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="R4" t="n">
-        <v>49.45491281910444</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="S4" t="n">
-        <v>49.45491281910444</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="T4" t="n">
-        <v>49.45491281910444</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="U4" t="n">
-        <v>49.45491281910444</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="V4" t="n">
-        <v>49.45491281910444</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="W4" t="n">
-        <v>49.45491281910444</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="X4" t="n">
-        <v>49.45491281910444</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="Y4" t="n">
-        <v>49.45491281910444</v>
+        <v>15.00204697330561</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>861.9600062922734</v>
+        <v>1097.313427108811</v>
       </c>
       <c r="C5" t="n">
-        <v>861.9600062922734</v>
+        <v>728.350910168399</v>
       </c>
       <c r="D5" t="n">
-        <v>861.9600062922734</v>
+        <v>728.350910168399</v>
       </c>
       <c r="E5" t="n">
-        <v>861.9600062922734</v>
+        <v>728.350910168399</v>
       </c>
       <c r="F5" t="n">
-        <v>450.9741015026659</v>
+        <v>317.3650053787914</v>
       </c>
       <c r="G5" t="n">
-        <v>34.55805631675735</v>
+        <v>128.3539025062529</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675735</v>
+        <v>128.3539025062529</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675735</v>
+        <v>34.55805631675788</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017204</v>
+        <v>111.6705539017224</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746945</v>
+        <v>277.9807166746994</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030704</v>
+        <v>521.2049416030793</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709098</v>
+        <v>823.5081935709227</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582741</v>
+        <v>1135.316836582758</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079226</v>
+        <v>1416.413635079247</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332743</v>
+        <v>1621.822248332767</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837867</v>
+        <v>1727.902815837894</v>
       </c>
       <c r="R5" t="n">
-        <v>1727.902815837867</v>
+        <v>1703.718566540663</v>
       </c>
       <c r="S5" t="n">
-        <v>1727.902815837867</v>
+        <v>1562.810726301011</v>
       </c>
       <c r="T5" t="n">
-        <v>1727.902815837867</v>
+        <v>1350.951391437447</v>
       </c>
       <c r="U5" t="n">
-        <v>1727.902815837867</v>
+        <v>1097.313427108811</v>
       </c>
       <c r="V5" t="n">
-        <v>1727.902815837867</v>
+        <v>1097.313427108811</v>
       </c>
       <c r="W5" t="n">
-        <v>1622.025604617475</v>
+        <v>1097.313427108811</v>
       </c>
       <c r="X5" t="n">
-        <v>1248.559846356395</v>
+        <v>1097.313427108811</v>
       </c>
       <c r="Y5" t="n">
-        <v>1248.559846356395</v>
+        <v>1097.313427108811</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>626.3464658426194</v>
+        <v>580.5135601615907</v>
       </c>
       <c r="C6" t="n">
-        <v>626.3464658426194</v>
+        <v>521.1704913827575</v>
       </c>
       <c r="D6" t="n">
-        <v>477.4120561813681</v>
+        <v>521.1704913827575</v>
       </c>
       <c r="E6" t="n">
-        <v>318.1746011759126</v>
+        <v>361.933036377302</v>
       </c>
       <c r="F6" t="n">
-        <v>171.6400432027975</v>
+        <v>215.3984784041869</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675735</v>
+        <v>78.31649151814676</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675735</v>
+        <v>78.31649151814676</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675735</v>
+        <v>34.55805631675788</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787432</v>
+        <v>61.66788464787597</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806041</v>
+        <v>186.1577239806077</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189941</v>
+        <v>399.8722171190003</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223444</v>
+        <v>668.6238185223538</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352405</v>
+        <v>958.8971200352529</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.22068622831</v>
+        <v>1202.220686228325</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639498</v>
+        <v>1378.176233639515</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906538</v>
+        <v>1445.878660906557</v>
       </c>
       <c r="R6" t="n">
-        <v>1401.100270703762</v>
+        <v>1445.878660906557</v>
       </c>
       <c r="S6" t="n">
-        <v>1401.100270703762</v>
+        <v>1445.878660906557</v>
       </c>
       <c r="T6" t="n">
-        <v>1401.100270703762</v>
+        <v>1445.878660906557</v>
       </c>
       <c r="U6" t="n">
-        <v>1401.100270703762</v>
+        <v>1445.878660906557</v>
       </c>
       <c r="V6" t="n">
-        <v>1256.559458355843</v>
+        <v>1210.726552674814</v>
       </c>
       <c r="W6" t="n">
-        <v>1002.322101627641</v>
+        <v>956.4891959466127</v>
       </c>
       <c r="X6" t="n">
-        <v>1002.322101627641</v>
+        <v>956.4891959466127</v>
       </c>
       <c r="Y6" t="n">
-        <v>794.5618028626875</v>
+        <v>748.7288971816588</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34.55805631675735</v>
+        <v>181.4480038146682</v>
       </c>
       <c r="C7" t="n">
-        <v>34.55805631675735</v>
+        <v>181.4480038146682</v>
       </c>
       <c r="D7" t="n">
-        <v>34.55805631675735</v>
+        <v>181.4480038146682</v>
       </c>
       <c r="E7" t="n">
-        <v>34.55805631675735</v>
+        <v>181.4480038146682</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675735</v>
+        <v>34.55805631675788</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675735</v>
+        <v>34.55805631675788</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675735</v>
+        <v>34.55805631675788</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675735</v>
+        <v>34.55805631675788</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675735</v>
+        <v>34.55805631675788</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574586</v>
+        <v>64.24066662574755</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584096</v>
+        <v>132.1299861584128</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347943</v>
+        <v>206.9680378347991</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195328</v>
+        <v>287.8841338195392</v>
       </c>
       <c r="O7" t="n">
-        <v>342.310156193467</v>
+        <v>342.3101561934748</v>
       </c>
       <c r="P7" t="n">
-        <v>369.819049585795</v>
+        <v>369.819049585804</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.819049585795</v>
+        <v>369.819049585804</v>
       </c>
       <c r="R7" t="n">
-        <v>369.819049585795</v>
+        <v>369.819049585804</v>
       </c>
       <c r="S7" t="n">
-        <v>369.819049585795</v>
+        <v>369.819049585804</v>
       </c>
       <c r="T7" t="n">
-        <v>369.819049585795</v>
+        <v>369.819049585804</v>
       </c>
       <c r="U7" t="n">
-        <v>369.819049585795</v>
+        <v>369.819049585804</v>
       </c>
       <c r="V7" t="n">
-        <v>369.819049585795</v>
+        <v>369.819049585804</v>
       </c>
       <c r="W7" t="n">
-        <v>80.40187954883436</v>
+        <v>369.819049585804</v>
       </c>
       <c r="X7" t="n">
-        <v>34.55805631675735</v>
+        <v>181.4480038146682</v>
       </c>
       <c r="Y7" t="n">
-        <v>34.55805631675735</v>
+        <v>181.4480038146682</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>824.6114411906398</v>
+        <v>515.2467085824439</v>
       </c>
       <c r="C8" t="n">
-        <v>824.6114411906398</v>
+        <v>515.2467085824439</v>
       </c>
       <c r="D8" t="n">
-        <v>466.3457425838893</v>
+        <v>515.2467085824439</v>
       </c>
       <c r="E8" t="n">
-        <v>466.3457425838893</v>
+        <v>515.2467085824439</v>
       </c>
       <c r="F8" t="n">
-        <v>55.35983779428172</v>
+        <v>508.3012078332405</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809306</v>
+        <v>429.723147379776</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I8" t="n">
         <v>43.36919653809306</v>
@@ -4807,10 +4807,10 @@
         <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232722</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711865</v>
+        <v>669.5878927711872</v>
       </c>
       <c r="M8" t="n">
         <v>1038.14846457873</v>
@@ -4831,25 +4831,25 @@
         <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904653</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="U8" t="n">
-        <v>1914.852662567162</v>
+        <v>1572.544009457209</v>
       </c>
       <c r="V8" t="n">
-        <v>1914.852662567162</v>
+        <v>1241.481122113638</v>
       </c>
       <c r="W8" t="n">
-        <v>1562.084007297048</v>
+        <v>888.7124668435238</v>
       </c>
       <c r="X8" t="n">
-        <v>1188.618249035968</v>
+        <v>515.2467085824439</v>
       </c>
       <c r="Y8" t="n">
-        <v>1188.618249035968</v>
+        <v>515.2467085824439</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>674.0716752610945</v>
+        <v>672.5286484590418</v>
       </c>
       <c r="C9" t="n">
-        <v>674.0716752610945</v>
+        <v>498.0756191779149</v>
       </c>
       <c r="D9" t="n">
-        <v>525.1372655998432</v>
+        <v>349.1412095166636</v>
       </c>
       <c r="E9" t="n">
-        <v>365.8998105943877</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3666861218701</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G9" t="n">
-        <v>175.490692336986</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H9" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
         <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562314</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
         <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104394</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789486</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N9" t="n">
         <v>1166.88538687358</v>
@@ -4901,34 +4901,34 @@
         <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689046</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333486</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972664</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S9" t="n">
-        <v>1734.238298972664</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="T9" t="n">
-        <v>1539.52797744664</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="U9" t="n">
-        <v>1539.52797744664</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="V9" t="n">
-        <v>1304.375869214897</v>
+        <v>1510.593141177798</v>
       </c>
       <c r="W9" t="n">
-        <v>1050.138512486695</v>
+        <v>1256.355784449597</v>
       </c>
       <c r="X9" t="n">
-        <v>842.2870122811626</v>
+        <v>1048.504284244064</v>
       </c>
       <c r="Y9" t="n">
-        <v>842.2870122811626</v>
+        <v>840.7439854791098</v>
       </c>
     </row>
     <row r="10">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>230.8721770036383</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="C10" t="n">
-        <v>230.8721770036383</v>
+        <v>488.2888770307322</v>
       </c>
       <c r="D10" t="n">
-        <v>230.8721770036383</v>
+        <v>338.1722376183965</v>
       </c>
       <c r="E10" t="n">
-        <v>82.95908342124523</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="F10" t="n">
         <v>43.36919653809306</v>
@@ -4965,49 +4965,49 @@
         <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981519</v>
+        <v>92.71685897981523</v>
       </c>
       <c r="L10" t="n">
         <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927331</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377459</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033657</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P10" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R10" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S10" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T10" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U10" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V10" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W10" t="n">
-        <v>230.8721770036383</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="X10" t="n">
-        <v>230.8721770036383</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Y10" t="n">
-        <v>230.8721770036383</v>
+        <v>520.2893470405991</v>
       </c>
     </row>
     <row r="11">
@@ -5020,16 +5020,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5038,22 +5038,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5074,16 +5074,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,22 +5117,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>671.2000270096659</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>923.4916164683283</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>754.5554335404214</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D13" t="n">
-        <v>604.4387941280856</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E13" t="n">
-        <v>604.4387941280856</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>457.5488466301753</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>290.3527473450552</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>148.6409161872533</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611858</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683283</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5260,7 +5260,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5281,16 +5281,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5363,19 +5363,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1802.364528928006</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487571</v>
       </c>
       <c r="T16" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510512</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.38585385471</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.715759118498</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.298589081537</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>983.30903818352</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>983.30903818352</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
@@ -5503,46 +5503,46 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168601</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362675</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797091</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111706</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075789</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5560,7 +5560,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5582,19 +5582,19 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K18" t="n">
         <v>577.3880777468471</v>
@@ -5603,19 +5603,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2351.089047197418</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2131.487582220359</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,52 +5734,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N21" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270434</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>3932.255922673039</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>3932.255922673039</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y22" t="n">
-        <v>3524.185693912098</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="23">
@@ -5971,70 +5971,70 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192582</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075789</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014776</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355934</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068006</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694703</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852251</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.83315239859</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492574</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.25260147478</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615994</v>
       </c>
     </row>
     <row r="24">
@@ -6056,37 +6056,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273892</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803935</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516139</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M24" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3044.50749608713</v>
+        <v>571.6607764188003</v>
       </c>
       <c r="C25" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="D25" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057736</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2437.72455551139</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2254.869721166295</v>
       </c>
       <c r="T25" t="n">
-        <v>4440.9326143059</v>
+        <v>2035.268256189236</v>
       </c>
       <c r="U25" t="n">
-        <v>4151.857387650098</v>
+        <v>1746.193029533434</v>
       </c>
       <c r="V25" t="n">
-        <v>3897.172899444211</v>
+        <v>1491.508541327547</v>
       </c>
       <c r="W25" t="n">
-        <v>3607.75572940725</v>
+        <v>1202.091371290587</v>
       </c>
       <c r="X25" t="n">
-        <v>3379.766178509233</v>
+        <v>974.1018203925698</v>
       </c>
       <c r="Y25" t="n">
-        <v>3158.973599365703</v>
+        <v>753.3092412490398</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6220,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6241,37 +6241,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="27">
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N27" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3342.537229081858</v>
+        <v>929.730977335612</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153951</v>
+        <v>929.730977335612</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741615</v>
+        <v>779.6143379232763</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159222</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661312</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376192</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998106</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4623.787448650995</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T28" t="n">
-        <v>4404.185983673936</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U28" t="n">
-        <v>4262.384993990606</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V28" t="n">
-        <v>4262.384993990606</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W28" t="n">
-        <v>3972.967823953645</v>
+        <v>1378.513107377159</v>
       </c>
       <c r="X28" t="n">
-        <v>3744.978273055628</v>
+        <v>1150.523556479142</v>
       </c>
       <c r="Y28" t="n">
-        <v>3524.185693912098</v>
+        <v>929.730977335612</v>
       </c>
     </row>
     <row r="29">
@@ -6451,46 +6451,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192895</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111743</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075833</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M30" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.741944003842</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179782</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910817</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570825</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.08939327981</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853368</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580268</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580268</v>
       </c>
       <c r="S31" t="n">
-        <v>2310.810470143821</v>
+        <v>2264.108249235172</v>
       </c>
       <c r="T31" t="n">
-        <v>2091.209005166763</v>
+        <v>2044.506784258113</v>
       </c>
       <c r="U31" t="n">
-        <v>1802.133778510961</v>
+        <v>1755.431557602311</v>
       </c>
       <c r="V31" t="n">
-        <v>1547.449290305074</v>
+        <v>1500.747069396424</v>
       </c>
       <c r="W31" t="n">
-        <v>1547.449290305074</v>
+        <v>1211.329899359463</v>
       </c>
       <c r="X31" t="n">
-        <v>1319.459739407056</v>
+        <v>983.340348461446</v>
       </c>
       <c r="Y31" t="n">
-        <v>1098.667160263526</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="32">
@@ -6694,37 +6694,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1092.345997432834</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C34" t="n">
-        <v>923.4098145049275</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510508</v>
+        <v>1901.695539989114</v>
       </c>
       <c r="V34" t="n">
-        <v>1722.776592304621</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="W34" t="n">
-        <v>1722.776592304621</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X34" t="n">
-        <v>1494.787041406604</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y34" t="n">
-        <v>1273.994462263074</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="35">
@@ -6919,31 +6919,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6952,16 +6952,16 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>924.6979859831846</v>
+        <v>580.0655846733345</v>
       </c>
       <c r="C37" t="n">
-        <v>755.7618030552777</v>
+        <v>411.1294017454276</v>
       </c>
       <c r="D37" t="n">
-        <v>605.645163642942</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E37" t="n">
-        <v>457.7320700605488</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>457.7320700605488</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>290.5359707754288</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956954</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X37" t="n">
-        <v>1327.139029956954</v>
+        <v>982.5066286471043</v>
       </c>
       <c r="Y37" t="n">
-        <v>1106.346450813424</v>
+        <v>761.7140495035742</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192585</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="39">
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M39" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>781.8178837532264</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>781.8178837532264</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.2946447138411</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7402,7 +7402,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7417,13 +7417,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3342.537229081859</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>3173.601046153952</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>3023.484406741616</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>2875.571313159223</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661313</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>4041.592414847077</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>4041.592414847077</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>3752.175244810116</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>3524.185693912098</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>3524.185693912098</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7630,16 +7630,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>640.1060525954244</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C46" t="n">
-        <v>640.1060525954244</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D46" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2103.713532365861</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1814.638305710059</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1559.953817504172</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W46" t="n">
-        <v>1270.536647467212</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X46" t="n">
-        <v>1042.547096569194</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y46" t="n">
-        <v>821.7545174256642</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
   </sheetData>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>26.98982571067694</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>111.7546635373313</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>66.34424953497799</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194215</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>152.4862366927522</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194308</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>40.30478226780068</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.51053793614962</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856542</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.22910392193984</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>145.8014946027474</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>165.5113759375273</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S31" t="n">
-        <v>46.23519869957002</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>123.7828069546745</v>
       </c>
     </row>
     <row r="32">
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>6.257951202385101</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>144.8013425629431</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>26.8084345146071</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>65.54986409393194</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.69998683092876</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.22910392194314</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>108.2431272522974</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>58.61468062667785</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>841353.9758775398</v>
+        <v>841353.9758775397</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>841353.9758775397</v>
+        <v>841353.9758775396</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>841353.9758775398</v>
+        <v>841353.9758775396</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>841353.9758775398</v>
+        <v>841353.9758775397</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>841353.9758775397</v>
+        <v>841353.9758775396</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>841353.9758775397</v>
+        <v>841353.9758775396</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>841353.9758775397</v>
+        <v>841353.9758775396</v>
       </c>
     </row>
     <row r="16">
@@ -26316,46 +26316,46 @@
         <v>595255.2831516054</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752541</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="I2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="J2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="K2" t="n">
-        <v>585181.284775254</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="L2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="M2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="O2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752542</v>
       </c>
     </row>
     <row r="3">
@@ -26368,19 +26368,19 @@
         <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253075</v>
+        <v>270592.3620253149</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231972</v>
+        <v>115410.0540231904</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742653</v>
+        <v>601443.2075742651</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.60042306972432e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854475</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881859</v>
+        <v>62913.63765882042</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197601</v>
+        <v>27875.25362197418</v>
       </c>
       <c r="M3" t="n">
         <v>157146.380551598</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3.080258466070518e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,40 +26420,40 @@
         <v>278536.5648341298</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263474</v>
+        <v>206604.4229263455</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186742</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186742</v>
       </c>
       <c r="G4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186743</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186757</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186742</v>
+        <v>14826.69604186747</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186738</v>
+        <v>14826.69604186747</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186744</v>
       </c>
       <c r="M4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186745</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186746</v>
       </c>
       <c r="O4" t="n">
         <v>14826.69604186736</v>
@@ -26472,7 +26472,7 @@
         <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936784</v>
+        <v>76435.73471936838</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26524,46 +26524,46 @@
         <v>-331623.9846149837</v>
       </c>
       <c r="C6" t="n">
-        <v>41622.76348058248</v>
+        <v>41622.76348057664</v>
       </c>
       <c r="D6" t="n">
-        <v>220443.1571836381</v>
+        <v>220443.1571836448</v>
       </c>
       <c r="E6" t="n">
-        <v>-132211.1486647853</v>
+        <v>-132558.5279191422</v>
       </c>
       <c r="F6" t="n">
-        <v>469232.0589094796</v>
+        <v>468884.6796551229</v>
       </c>
       <c r="G6" t="n">
-        <v>469232.0589094802</v>
+        <v>468884.6796551232</v>
       </c>
       <c r="H6" t="n">
-        <v>469232.0589094799</v>
+        <v>468884.6796551232</v>
       </c>
       <c r="I6" t="n">
-        <v>469232.0589094799</v>
+        <v>468884.6796551227</v>
       </c>
       <c r="J6" t="n">
-        <v>420167.1141809353</v>
+        <v>419819.7349265779</v>
       </c>
       <c r="K6" t="n">
-        <v>406318.4212506609</v>
+        <v>405971.0419963026</v>
       </c>
       <c r="L6" t="n">
-        <v>441356.8052875038</v>
+        <v>441009.4260331487</v>
       </c>
       <c r="M6" t="n">
-        <v>312085.678357882</v>
+        <v>311738.2991035249</v>
       </c>
       <c r="N6" t="n">
-        <v>469232.0589094799</v>
+        <v>468884.6796551227</v>
       </c>
       <c r="O6" t="n">
-        <v>469232.0589094799</v>
+        <v>468884.6796551226</v>
       </c>
       <c r="P6" t="n">
-        <v>469232.0589094799</v>
+        <v>468884.6796551227</v>
       </c>
     </row>
   </sheetData>
@@ -26694,31 +26694,31 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.838300041165674e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>6.838300041165674e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.838300041165674e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.838300041165674e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26740,10 +26740,10 @@
         <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>758.899629295058</v>
+        <v>758.8996292950637</v>
       </c>
       <c r="D3" t="n">
-        <v>853.710664537684</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26755,25 +26755,25 @@
         <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="I3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="J3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="K3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="L3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="M3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="O3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594668</v>
+        <v>431.9757039594735</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261633</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26810,7 +26810,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099647</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26916,19 +26916,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>9.352380938653054e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26962,13 +26962,13 @@
         <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821532</v>
+        <v>210.4296883821589</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262596</v>
+        <v>94.81103524262039</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039897</v>
+        <v>514.2648358039896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931467</v>
+        <v>244.4501167931534</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666964</v>
+        <v>110.1392527666898</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734851</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663205</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931467</v>
+        <v>244.4501167931539</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666966</v>
+        <v>110.1392527666894</v>
       </c>
       <c r="M4" t="n">
         <v>630.5933313734852</v>
@@ -27153,19 +27153,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>9.352380938653054e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931467</v>
+        <v>244.4501167931534</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666964</v>
+        <v>110.1392527666898</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734851</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>358.8761677849659</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543629</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059417</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>219.3504585753913</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>225.572246063738</v>
       </c>
       <c r="H2" t="n">
-        <v>220.0271129422939</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666373</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988671</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
@@ -27457,16 +27457,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27481,7 +27481,7 @@
         <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>102.6699562443697</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.2749999831052</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459954</v>
+        <v>198.4738223547501</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715738</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.1571086109843</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>111.3127108355904</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
@@ -27578,13 +27578,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
         <v>68.68604055159722</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>80.60642335625573</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>225.1308928902363</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714737</v>
+        <v>308.2302560714734</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760095</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425997</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372558</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149289</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1015846853496</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>244.4225296092246</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27697,10 +27697,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>113.9588608972709</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27712,10 +27712,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246138</v>
+        <v>96.47037835246127</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937541</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,19 +27742,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074766</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843608</v>
+        <v>141.3629830843605</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974428</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
         <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>89.70518292498571</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27785,19 +27785,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
-        <v>150.0598964836598</v>
+        <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>114.2957212599132</v>
+        <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304093</v>
+        <v>30.24193919304021</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,28 +27818,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589209</v>
+        <v>36.91115760589122</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166227</v>
+        <v>115.7603165166222</v>
       </c>
       <c r="S7" t="n">
-        <v>200.1672441130603</v>
+        <v>200.1672441130602</v>
       </c>
       <c r="T7" t="n">
         <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2443834913144</v>
+        <v>286.2443834913143</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>180.3242703892809</v>
+        <v>39.22232007561274</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.3671018966055</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>334.0784549946969</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708302</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092505</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27934,7 +27934,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27943,16 +27943,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>92.07141916559144</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,13 +27979,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>117.2980339485929</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
         <v>225.8205739680685</v>
@@ -28000,7 +28000,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28013,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>135.5663557888597</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>106.2270600086106</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28034,7 +28034,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923926</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425556</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
         <v>108.0728512656386</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28146,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.239505050323025e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28532,7 +28532,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>4.111025083571365e-12</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.449507180950604e-12</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29037,7 +29037,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>2.571831483409965e-12</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29049,13 +29049,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
     </row>
     <row r="26">
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>6.838300041165674e-14</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29334,16 +29334,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>6.838300041165674e-14</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>6.838300041165674e-14</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29441,7 +29441,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>7.306723593985522e-12</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -29565,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>5.519365296858341e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29696,7 +29696,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>7.987134448081508e-12</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1.84741111297626e-12</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1.913349478854798e-12</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30234,7 +30234,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085658</v>
+        <v>3.050852781085681</v>
       </c>
       <c r="H5" t="n">
-        <v>31.2445460442935</v>
+        <v>31.24454604429374</v>
       </c>
       <c r="I5" t="n">
-        <v>117.618001842805</v>
+        <v>117.6180018428058</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286691</v>
+        <v>258.9373162286711</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520251</v>
+        <v>388.079914452028</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511754</v>
+        <v>481.447450251179</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968075</v>
+        <v>535.7030533968115</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610671</v>
+        <v>544.3712888610712</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191466</v>
+        <v>514.0343715191505</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860944</v>
+        <v>438.7164434860976</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634641</v>
+        <v>329.4577782634666</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098721</v>
+        <v>191.6431310098736</v>
       </c>
       <c r="S5" t="n">
-        <v>69.5213077489895</v>
+        <v>69.52130774899003</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920248</v>
+        <v>13.35510804920258</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868526</v>
+        <v>0.2440682224868544</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.63235014603088</v>
+        <v>1.632350146030892</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403508</v>
+        <v>15.7650658840352</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062459</v>
+        <v>56.20152915062501</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475929</v>
+        <v>154.2212916475941</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316618</v>
+        <v>263.5887514316638</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721873</v>
+        <v>354.4276051721899</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658066</v>
+        <v>413.6002979658097</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468646</v>
+        <v>424.5470671468678</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374435</v>
+        <v>388.3776244374465</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872476</v>
+        <v>311.7072835872499</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547488</v>
+        <v>208.3680642547504</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632155</v>
+        <v>101.3488976632163</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947707</v>
+        <v>30.32018801947729</v>
       </c>
       <c r="T6" t="n">
-        <v>6.57951659737885</v>
+        <v>6.579516597378899</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757158</v>
+        <v>0.1073914569757166</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.36850752823699</v>
+        <v>1.368507528237</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377979</v>
+        <v>12.16727602377988</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734513</v>
+        <v>41.15475366734543</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635518</v>
+        <v>96.7534822463559</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260793</v>
+        <v>158.9956928260805</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162521</v>
+        <v>203.4597465162537</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399128</v>
+        <v>214.5197755399144</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528479</v>
+        <v>209.4189747528494</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275339</v>
+        <v>193.4323186275353</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514991</v>
+        <v>165.5147650515004</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235538</v>
+        <v>114.5938440235546</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054682</v>
+        <v>61.53307486054727</v>
       </c>
       <c r="S7" t="n">
-        <v>23.8493539239119</v>
+        <v>23.84935392391207</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830773</v>
+        <v>5.847259438830816</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656316</v>
+        <v>0.07464586517656373</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31530,10 +31530,10 @@
         <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840425</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934777</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
         <v>612.3808166839008</v>
@@ -31542,22 +31542,22 @@
         <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662297</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928394</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
         <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699489</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
         <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206619</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31600,7 +31600,7 @@
         <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095114</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
         <v>173.4885040076062</v>
@@ -31609,19 +31609,19 @@
         <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616797</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730377</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152842</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884504</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475631</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
         <v>234.3999545349506</v>
@@ -31630,10 +31630,10 @@
         <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053858</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057842</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
         <v>0.1208081129062761</v>
@@ -31679,22 +31679,22 @@
         <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017474</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001568</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
         <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368735</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282505</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420138</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
         <v>217.5982526595396</v>
@@ -31706,13 +31706,13 @@
         <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153088</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
         <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978874</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
         <v>0.08397154077419852</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31846,16 +31846,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>568.8264345569168</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32083,7 +32083,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32092,13 +32092,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>340.7767527663067</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32323,22 +32323,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N18" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O21" t="n">
-        <v>198.5607970756955</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S23" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M24" t="n">
-        <v>414.6448185524877</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32864,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O27" t="n">
-        <v>369.1789913099997</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067262</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N30" t="n">
-        <v>536.3866168795495</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>359.1374415194877</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33338,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M33" t="n">
-        <v>301.1823051500301</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N36" t="n">
-        <v>357.9244589488886</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460039</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N39" t="n">
-        <v>403.8524967138027</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34207,16 +34207,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>404.0195168876591</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34453,7 +34453,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>302.3396059822671</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.8914117019828</v>
+        <v>77.89141170198479</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070445</v>
+        <v>167.9900634070474</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811882</v>
+        <v>245.6810352811918</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695348</v>
+        <v>305.3568201695388</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644762</v>
+        <v>314.9582252644803</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974598</v>
+        <v>283.9361600974637</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308248</v>
+        <v>207.4834477308281</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890146</v>
+        <v>107.1520883890171</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092623</v>
+        <v>27.38366498092736</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573028</v>
+        <v>125.7473124573048</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923131</v>
+        <v>215.8732253923158</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437883</v>
+        <v>271.4662640437913</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635313</v>
+        <v>293.2053550635345</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799929991</v>
+        <v>245.781379993002</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729173</v>
+        <v>177.7328761729196</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872727</v>
+        <v>68.38629016872883</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554395</v>
+        <v>29.98243465554512</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501384</v>
+        <v>68.57507023501537</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230779</v>
+        <v>75.59399159230938</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761468</v>
+        <v>81.73343028761624</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569109</v>
+        <v>54.97578017569253</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235151</v>
+        <v>27.78676100235276</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,16 +35172,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142394</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808905</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140553</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>372.283405866205</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
         <v>382.9677530873099</v>
@@ -35190,7 +35190,7 @@
         <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109601</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
         <v>148.31198861839</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.65087734093947</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
         <v>158.6780472169987</v>
@@ -35260,7 +35260,7 @@
         <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510194</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
         <v>346.2449737319509</v>
@@ -35272,7 +35272,7 @@
         <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892904</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,19 +35333,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850721</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563525</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M10" t="n">
         <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767806</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769679</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P10" t="n">
         <v>48.46489236084162</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,16 +35494,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>430.2720547770426</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35731,7 +35731,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,13 +35740,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35971,22 +35971,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N18" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O21" t="n">
-        <v>55.96455263125101</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M24" t="n">
-        <v>272.5107846304694</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295343</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
         <v>426.2724270010451</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O27" t="n">
-        <v>226.5827468655553</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236320278</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>405.0449047962162</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>219.1556674334661</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789205</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096428</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M33" t="n">
-        <v>159.0482712280117</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>226.5827468655553</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243171</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>272.5107846304694</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>265.4651371077849</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,7 +38101,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>163.7852262023929</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2083671.870313911</v>
+        <v>2085432.400616697</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9729296.60764407</v>
+        <v>9729296.607644068</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>165.7970289519849</v>
       </c>
       <c r="C2" t="n">
-        <v>6.396723986041656</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663201</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666375</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>141.4261508958554</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -749,10 +749,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -800,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>53.22116080616951</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>52.21594625443453</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>52.21594625443465</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>187.1209918438131</v>
+        <v>170.4635135425515</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760007</v>
+        <v>92.85788772760031</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425855</v>
+        <v>23.94240680425892</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372553</v>
+        <v>139.4987618372554</v>
       </c>
       <c r="T5" t="n">
         <v>209.7407415149288</v>
@@ -977,10 +977,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>58.74963809104485</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7111670171797</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937498</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>196.350676511508</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>19.86486348320039</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>186.4873353134244</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>77.79227984892985</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>65.49772227050371</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U8" t="n">
         <v>251.0710926941158</v>
@@ -1195,10 +1195,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>20.27697994470974</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>20.27697994470635</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>31.68046530976816</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>185.6279506608915</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1426,10 +1426,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881274</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1530,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>22.65115569188744</v>
+        <v>83.87284639171752</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671011757</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>180.8909947756157</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>185.79339378885</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576154</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576146</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T21" t="n">
         <v>188.3046392154443</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428081</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.733841663478</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2329,13 +2329,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187865</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569552</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T24" t="n">
         <v>188.3046392154443</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788181733</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206807</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T27" t="n">
         <v>188.3046392154443</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465619</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2775,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>121.0116223990637</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>23.05950344416363</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T30" t="n">
         <v>188.3046392154443</v>
@@ -2952,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>94.80184639742028</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695349</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T33" t="n">
         <v>188.3046392154443</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,13 +3243,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>141.3831318263011</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695342</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T36" t="n">
         <v>188.3046392154443</v>
@@ -3432,13 +3432,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.8253826161897768</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3514,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417092</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T39" t="n">
         <v>188.3046392154443</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788178581</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>180.330238561827</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>179.2499669408062</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3991,10 +3991,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>113.6427030833203</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>589.7227393823985</v>
+        <v>344.3906707271972</v>
       </c>
       <c r="C2" t="n">
-        <v>583.2614020227604</v>
+        <v>344.3906707271972</v>
       </c>
       <c r="D2" t="n">
-        <v>393.8416170062755</v>
+        <v>344.3906707271972</v>
       </c>
       <c r="E2" t="n">
-        <v>393.8416170062755</v>
+        <v>344.3906707271972</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897905</v>
+        <v>154.9708857107124</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330561</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330561</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678508</v>
+        <v>21.033711606785</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058969</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644757</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123833</v>
+        <v>509.4952041123829</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020271</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652804</v>
+        <v>672.2420264262255</v>
       </c>
       <c r="S2" t="n">
-        <v>589.7227393823985</v>
+        <v>511.8624171433436</v>
       </c>
       <c r="T2" t="n">
-        <v>589.7227393823985</v>
+        <v>511.8624171433436</v>
       </c>
       <c r="U2" t="n">
-        <v>589.7227393823985</v>
+        <v>511.8624171433436</v>
       </c>
       <c r="V2" t="n">
-        <v>589.7227393823985</v>
+        <v>511.8624171433436</v>
       </c>
       <c r="W2" t="n">
-        <v>589.7227393823985</v>
+        <v>511.8624171433436</v>
       </c>
       <c r="X2" t="n">
-        <v>589.7227393823985</v>
+        <v>511.8624171433436</v>
       </c>
       <c r="Y2" t="n">
-        <v>589.7227393823985</v>
+        <v>511.8624171433436</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>338.7084783396673</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="C3" t="n">
-        <v>338.7084783396673</v>
+        <v>607.2476507906783</v>
       </c>
       <c r="D3" t="n">
-        <v>189.774068678416</v>
+        <v>458.313241129427</v>
       </c>
       <c r="E3" t="n">
-        <v>30.53661367296051</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="F3" t="n">
-        <v>30.53661367296051</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="G3" t="n">
-        <v>30.53661367296051</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>30.53661367296051</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296051</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024222</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772648</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140247</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546602</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476349</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017068</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="V3" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="W3" t="n">
-        <v>696.3436003762203</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="X3" t="n">
-        <v>506.9238153597353</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="Y3" t="n">
-        <v>506.9238153597353</v>
+        <v>750.1023486652798</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230183</v>
+        <v>27.03967056230179</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170729</v>
+        <v>42.98993985170722</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396353</v>
+        <v>66.41847329396343</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="R4" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="S4" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="T4" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="U4" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702828998</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1097.313427108811</v>
+        <v>1097.313427108803</v>
       </c>
       <c r="C5" t="n">
-        <v>728.350910168399</v>
+        <v>1097.313427108803</v>
       </c>
       <c r="D5" t="n">
-        <v>728.350910168399</v>
+        <v>1097.313427108803</v>
       </c>
       <c r="E5" t="n">
-        <v>728.350910168399</v>
+        <v>711.5251745105591</v>
       </c>
       <c r="F5" t="n">
-        <v>317.3650053787914</v>
+        <v>300.5392697209515</v>
       </c>
       <c r="G5" t="n">
-        <v>128.3539025062529</v>
+        <v>128.353902506253</v>
       </c>
       <c r="H5" t="n">
-        <v>128.3539025062529</v>
+        <v>128.353902506253</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675788</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017224</v>
+        <v>111.6705539017222</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746994</v>
+        <v>277.9807166746984</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030793</v>
+        <v>521.2049416030771</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709227</v>
+        <v>823.5081935709193</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582758</v>
+        <v>1135.316836582754</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079247</v>
+        <v>1416.413635079242</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332767</v>
+        <v>1621.822248332761</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837894</v>
+        <v>1727.902815837887</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.718566540663</v>
+        <v>1703.718566540656</v>
       </c>
       <c r="S5" t="n">
-        <v>1562.810726301011</v>
+        <v>1562.810726301004</v>
       </c>
       <c r="T5" t="n">
-        <v>1350.951391437447</v>
+        <v>1350.951391437439</v>
       </c>
       <c r="U5" t="n">
-        <v>1097.313427108811</v>
+        <v>1097.313427108803</v>
       </c>
       <c r="V5" t="n">
-        <v>1097.313427108811</v>
+        <v>1097.313427108803</v>
       </c>
       <c r="W5" t="n">
-        <v>1097.313427108811</v>
+        <v>1097.313427108803</v>
       </c>
       <c r="X5" t="n">
-        <v>1097.313427108811</v>
+        <v>1097.313427108803</v>
       </c>
       <c r="Y5" t="n">
-        <v>1097.313427108811</v>
+        <v>1097.313427108803</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>580.5135601615907</v>
+        <v>663.7175082377065</v>
       </c>
       <c r="C6" t="n">
-        <v>521.1704913827575</v>
+        <v>489.2644789565795</v>
       </c>
       <c r="D6" t="n">
-        <v>521.1704913827575</v>
+        <v>340.3300692953283</v>
       </c>
       <c r="E6" t="n">
-        <v>361.933036377302</v>
+        <v>181.0926142898728</v>
       </c>
       <c r="F6" t="n">
-        <v>215.3984784041869</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="G6" t="n">
-        <v>78.31649151814676</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="H6" t="n">
-        <v>78.31649151814676</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675788</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787597</v>
+        <v>61.66788464787555</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806077</v>
+        <v>186.1577239806068</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171190003</v>
+        <v>399.8722171189987</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223538</v>
+        <v>668.6238185223514</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352529</v>
+        <v>958.8971200352498</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228325</v>
+        <v>1202.220686228321</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639515</v>
+        <v>1378.176233639511</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906557</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.878660906557</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.878660906557</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="T6" t="n">
-        <v>1445.878660906557</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="U6" t="n">
-        <v>1445.878660906557</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="V6" t="n">
-        <v>1210.726552674814</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="W6" t="n">
-        <v>956.4891959466127</v>
+        <v>1247.544644228261</v>
       </c>
       <c r="X6" t="n">
-        <v>956.4891959466127</v>
+        <v>1039.693144022728</v>
       </c>
       <c r="Y6" t="n">
-        <v>748.7288971816588</v>
+        <v>831.9328452577745</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.4480038146682</v>
+        <v>369.8190495858016</v>
       </c>
       <c r="C7" t="n">
-        <v>181.4480038146682</v>
+        <v>369.8190495858016</v>
       </c>
       <c r="D7" t="n">
-        <v>181.4480038146682</v>
+        <v>369.8190495858016</v>
       </c>
       <c r="E7" t="n">
-        <v>181.4480038146682</v>
+        <v>369.8190495858016</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675788</v>
+        <v>222.9291020878913</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675788</v>
+        <v>54.62357498665713</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675788</v>
+        <v>54.62357498665713</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675788</v>
+        <v>54.62357498665713</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675788</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574755</v>
+        <v>64.24066662574712</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584128</v>
+        <v>132.129986158412</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347991</v>
+        <v>206.9680378347978</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195392</v>
+        <v>287.8841338195375</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934748</v>
+        <v>342.3101561934727</v>
       </c>
       <c r="P7" t="n">
-        <v>369.819049585804</v>
+        <v>369.8190495858016</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.819049585804</v>
+        <v>369.8190495858016</v>
       </c>
       <c r="R7" t="n">
-        <v>369.819049585804</v>
+        <v>369.8190495858016</v>
       </c>
       <c r="S7" t="n">
-        <v>369.819049585804</v>
+        <v>369.8190495858016</v>
       </c>
       <c r="T7" t="n">
-        <v>369.819049585804</v>
+        <v>369.8190495858016</v>
       </c>
       <c r="U7" t="n">
-        <v>369.819049585804</v>
+        <v>369.8190495858016</v>
       </c>
       <c r="V7" t="n">
-        <v>369.819049585804</v>
+        <v>369.8190495858016</v>
       </c>
       <c r="W7" t="n">
-        <v>369.819049585804</v>
+        <v>369.8190495858016</v>
       </c>
       <c r="X7" t="n">
-        <v>181.4480038146682</v>
+        <v>369.8190495858016</v>
       </c>
       <c r="Y7" t="n">
-        <v>181.4480038146682</v>
+        <v>369.8190495858016</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>515.2467085824439</v>
+        <v>1241.481122113643</v>
       </c>
       <c r="C8" t="n">
-        <v>515.2467085824439</v>
+        <v>872.5186051732312</v>
       </c>
       <c r="D8" t="n">
-        <v>515.2467085824439</v>
+        <v>514.2529065664808</v>
       </c>
       <c r="E8" t="n">
-        <v>515.2467085824439</v>
+        <v>128.4646539682365</v>
       </c>
       <c r="F8" t="n">
-        <v>508.3012078332405</v>
+        <v>121.519153219033</v>
       </c>
       <c r="G8" t="n">
-        <v>429.723147379776</v>
+        <v>109.5285119628444</v>
       </c>
       <c r="H8" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>152.5078184301913</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232722</v>
+        <v>366.8168396232736</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711872</v>
+        <v>669.587892771189</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578733</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135171</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.960612545601</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172452</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904658</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904658</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642784</v>
+        <v>2036.325171642789</v>
       </c>
       <c r="T8" t="n">
-        <v>1826.151173794699</v>
+        <v>1826.151173794704</v>
       </c>
       <c r="U8" t="n">
-        <v>1572.544009457209</v>
+        <v>1572.544009457214</v>
       </c>
       <c r="V8" t="n">
-        <v>1241.481122113638</v>
+        <v>1241.481122113643</v>
       </c>
       <c r="W8" t="n">
-        <v>888.7124668435238</v>
+        <v>1241.481122113643</v>
       </c>
       <c r="X8" t="n">
-        <v>515.2467085824439</v>
+        <v>1241.481122113643</v>
       </c>
       <c r="Y8" t="n">
-        <v>515.2467085824439</v>
+        <v>1241.481122113643</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>672.5286484590418</v>
+        <v>693.0104463829912</v>
       </c>
       <c r="C9" t="n">
-        <v>498.0756191779149</v>
+        <v>518.5574171018642</v>
       </c>
       <c r="D9" t="n">
-        <v>349.1412095166636</v>
+        <v>369.6230074406129</v>
       </c>
       <c r="E9" t="n">
-        <v>189.9037545112081</v>
+        <v>210.3855524351574</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809306</v>
+        <v>63.85099446204239</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562348</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504519</v>
+        <v>246.6448318504525</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104395</v>
+        <v>504.1959674104406</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789488</v>
+        <v>824.1028628789504</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.88538687358</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128146</v>
+        <v>1458.244633128149</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689047</v>
+        <v>1672.75304868905</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="S9" t="n">
-        <v>1745.745249409541</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="T9" t="n">
-        <v>1745.745249409541</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="U9" t="n">
-        <v>1745.745249409541</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="V9" t="n">
-        <v>1510.593141177798</v>
+        <v>1531.074939101748</v>
       </c>
       <c r="W9" t="n">
-        <v>1256.355784449597</v>
+        <v>1276.837582373546</v>
       </c>
       <c r="X9" t="n">
-        <v>1048.504284244064</v>
+        <v>1068.986082168013</v>
       </c>
       <c r="Y9" t="n">
-        <v>840.7439854791098</v>
+        <v>861.2257834030593</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="C10" t="n">
-        <v>488.2888770307322</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="D10" t="n">
-        <v>338.1722376183965</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2591440360034</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981523</v>
+        <v>92.71685897981553</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018941</v>
+        <v>185.7706748018947</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927332</v>
+        <v>287.1411594927341</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377461</v>
+        <v>393.9588065377472</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033659</v>
+        <v>472.3091036033673</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406008</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406008</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406008</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406008</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406008</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406008</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470405991</v>
+        <v>332.7863665750538</v>
       </c>
       <c r="W10" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="X10" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809316</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,7 +5029,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5038,22 +5038,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5074,7 +5074,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C13" t="n">
-        <v>580.8993044876688</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D13" t="n">
-        <v>430.7826650753331</v>
+        <v>634.334587849125</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="14">
@@ -5281,16 +5281,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>801.6605733532803</v>
+        <v>800.6374272687975</v>
       </c>
       <c r="C16" t="n">
-        <v>632.7243904253734</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832667</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487571</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510512</v>
+        <v>2264.244907039234</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.38585385471</v>
+        <v>1975.169680383432</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.715759118498</v>
+        <v>1720.485192177545</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.298589081537</v>
+        <v>1431.068022140585</v>
       </c>
       <c r="X16" t="n">
-        <v>983.30903818352</v>
+        <v>1203.078471242567</v>
       </c>
       <c r="Y16" t="n">
-        <v>983.30903818352</v>
+        <v>982.2858920990373</v>
       </c>
     </row>
     <row r="17">
@@ -5491,58 +5491,58 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168601</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362675</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797091</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075789</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5560,7 +5560,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5582,34 +5582,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797182</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1501.8401750111</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5746,7 +5746,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5761,25 +5761,25 @@
         <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273895</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.155464951614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167372</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.45752234853</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400703</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121634</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121634</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121634</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121634</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270434</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487566</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510507</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854705</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648818</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138402</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.50206557031</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5974,67 +5974,67 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075789</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068006</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694703</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852251</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.83315239859</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492574</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.25260147478</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6056,31 +6056,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273892</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803935</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516139</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167372</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.45752234853</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188003</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908935</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908935</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908935</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908935</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057736</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
         <v>826.1405381797745</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.72455551139</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166295</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189236</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533434</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327547</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290587</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925698</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490398</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6232,46 +6232,46 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273895</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.155464951614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167372</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.45752234853</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>929.730977335612</v>
+        <v>718.5507239167111</v>
       </c>
       <c r="C28" t="n">
-        <v>929.730977335612</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232763</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1378.513107377159</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1150.523556479142</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y28" t="n">
-        <v>929.730977335612</v>
+        <v>900.1991887469509</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,31 +6460,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192895</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111743</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075833</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273899</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.155464951614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167372</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.45752234853</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2299.45752234853</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2299.45752234853</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6624,49 +6624,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.741944003842</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.140538179782</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910817</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570825</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.08939327981</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853368</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580268</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580268</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235172</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258113</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602311</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396424</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359463</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.340348461446</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>887.5809076559709</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6694,7 +6694,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
@@ -6703,28 +6703,28 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273895</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.155464951614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167372</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.45752234853</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711973</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1901.695539989114</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1647.011051783227</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,43 +6925,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273895</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.155464951614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167372</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.45752234853</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.0655846733345</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>411.1294017454276</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>261.0127623330919</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.129363765926</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2263.274529420831</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T37" t="n">
-        <v>2043.673064443772</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U37" t="n">
-        <v>1754.597837787969</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V37" t="n">
-        <v>1499.913349582082</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W37" t="n">
-        <v>1210.496179545122</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X37" t="n">
-        <v>982.5066286471043</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y37" t="n">
-        <v>761.7140495035742</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7168,10 +7168,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192585</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111712</v>
@@ -7183,43 +7183,43 @@
         <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273895</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.155464951614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167372</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.45752234853</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7393,28 +7393,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7611,10 +7611,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7639,28 +7639,28 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7736,10 +7736,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>599.6019060180513</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7842,16 +7842,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>123.7828069546817</v>
+        <v>62.56111625485165</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23661,10 +23661,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>36.51445555167257</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>66.34424953497799</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194215</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194308</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856542</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392193984</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>165.5113759375273</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>202.6501519448735</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>123.7828069546745</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>144.8013425629431</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>65.54986409393194</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194314</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>105.8542358274172</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>46.45968844823099</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>34.97276993489203</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>841353.9758775397</v>
+        <v>841353.9758775396</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>841353.9758775397</v>
+        <v>841353.9758775396</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>841353.9758775398</v>
+        <v>841353.9758775396</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>841353.9758775398</v>
+        <v>841353.9758775396</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>841353.9758775397</v>
+        <v>841353.9758775396</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>841353.9758775396</v>
+        <v>841353.9758775397</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>841353.9758775397</v>
+        <v>841353.9758775396</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="F2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="I2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="J2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="K2" t="n">
         <v>585181.2847752545</v>
       </c>
       <c r="L2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="M2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="O2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="P2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="P2" t="n">
-        <v>585181.2847752542</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253149</v>
+        <v>270592.3620253131</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231904</v>
+        <v>115410.0540231934</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742651</v>
+        <v>601443.2075742639</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854475</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765882042</v>
+        <v>62913.63765881984</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197418</v>
+        <v>27875.25362197505</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.380551598</v>
+        <v>157146.3805515977</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3.080258466070518e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,43 +26417,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341298</v>
+        <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263455</v>
+        <v>206604.422926346</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888977</v>
+        <v>174202.9900888973</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186742</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186742</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186743</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186757</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186747</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186747</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186744</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
-        <v>14826.69604186745</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.69604186746</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="O4" t="n">
         <v>14826.69604186736</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936838</v>
+        <v>76435.73471936824</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>85199.08185587233</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-331623.9846149837</v>
+        <v>-331623.9846149834</v>
       </c>
       <c r="C6" t="n">
-        <v>41622.76348057664</v>
+        <v>41622.76348057784</v>
       </c>
       <c r="D6" t="n">
-        <v>220443.1571836448</v>
+        <v>220443.1571836424</v>
       </c>
       <c r="E6" t="n">
-        <v>-132558.5279191422</v>
+        <v>-132245.8865902199</v>
       </c>
       <c r="F6" t="n">
-        <v>468884.6796551229</v>
+        <v>469197.3209840441</v>
       </c>
       <c r="G6" t="n">
-        <v>468884.6796551232</v>
+        <v>469197.320984044</v>
       </c>
       <c r="H6" t="n">
-        <v>468884.6796551232</v>
+        <v>469197.3209840442</v>
       </c>
       <c r="I6" t="n">
-        <v>468884.6796551227</v>
+        <v>469197.3209840442</v>
       </c>
       <c r="J6" t="n">
-        <v>419819.7349265779</v>
+        <v>420132.3762554995</v>
       </c>
       <c r="K6" t="n">
-        <v>405971.0419963026</v>
+        <v>406283.6833252245</v>
       </c>
       <c r="L6" t="n">
-        <v>441009.4260331487</v>
+        <v>441322.0673620693</v>
       </c>
       <c r="M6" t="n">
-        <v>311738.2991035249</v>
+        <v>312050.9404324465</v>
       </c>
       <c r="N6" t="n">
-        <v>468884.6796551227</v>
+        <v>469197.3209840441</v>
       </c>
       <c r="O6" t="n">
-        <v>468884.6796551226</v>
+        <v>469197.3209840443</v>
       </c>
       <c r="P6" t="n">
-        <v>468884.6796551227</v>
+        <v>469197.3209840442</v>
       </c>
     </row>
   </sheetData>
@@ -26694,31 +26694,31 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.838300041165674e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.838300041165674e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.838300041165674e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.838300041165674e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950637</v>
+        <v>758.8996292950623</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>853.7106645376851</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26755,25 +26755,25 @@
         <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="I3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="J3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="K3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="L3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="M3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="O3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594735</v>
+        <v>431.9757039594718</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261633</v>
+        <v>542.1149567261646</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26810,7 +26810,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099647</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>9.352380938653054e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821589</v>
+        <v>210.4296883821576</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262039</v>
+        <v>94.81103524262289</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039896</v>
+        <v>514.2648358039886</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,40 +27011,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>187.52558716632</v>
+      </c>
+      <c r="C4" t="n">
+        <v>244.4501167931518</v>
+      </c>
+      <c r="D4" t="n">
+        <v>110.1392527666928</v>
+      </c>
+      <c r="E4" t="n">
+        <v>630.5933313734838</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>187.5255871663201</v>
       </c>
-      <c r="C4" t="n">
-        <v>244.4501167931534</v>
-      </c>
-      <c r="D4" t="n">
-        <v>110.1392527666898</v>
-      </c>
-      <c r="E4" t="n">
-        <v>630.5933313734851</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>187.5255871663205</v>
-      </c>
       <c r="K4" t="n">
-        <v>244.4501167931539</v>
+        <v>244.4501167931516</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666894</v>
+        <v>110.1392527666928</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734838</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9.352380938653054e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931534</v>
+        <v>244.4501167931518</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666898</v>
+        <v>110.1392527666928</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734851</v>
+        <v>630.5933313734838</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>216.9368127114957</v>
       </c>
       <c r="C2" t="n">
-        <v>358.8761677849659</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543629</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753913</v>
+        <v>219.3504585753915</v>
       </c>
       <c r="G2" t="n">
-        <v>225.572246063738</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666373</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>31.2823480924603</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27469,19 +27469,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846316</v>
+        <v>72.43289562846319</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
@@ -27520,10 +27520,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>198.4738223547501</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715738</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>93.20510176849672</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
@@ -27560,10 +27560,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825414</v>
+        <v>57.06999962825415</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,13 +27578,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709382</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159722</v>
+        <v>68.68604055159723</v>
       </c>
       <c r="R4" t="n">
-        <v>80.60642335625573</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
@@ -27618,22 +27618,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>225.1308928902363</v>
+        <v>241.7883711914979</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714734</v>
+        <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27697,10 +27697,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>113.9588608972709</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27709,13 +27709,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246127</v>
+        <v>96.4703783524613</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.3208508493751</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,10 +27742,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074766</v>
+        <v>44.33060630074786</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843605</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
         <v>193.5852120974427</v>
@@ -27754,13 +27754,13 @@
         <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>55.34430664941158</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6224718302218</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>150.0598964836597</v>
@@ -27797,7 +27797,7 @@
         <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304021</v>
+        <v>10.37707570984001</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589122</v>
+        <v>36.91115760589145</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166222</v>
+        <v>115.7603165166223</v>
       </c>
       <c r="S7" t="n">
         <v>200.1672441130602</v>
@@ -27830,7 +27830,7 @@
         <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2443834913143</v>
+        <v>286.2443834913144</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>39.22232007561274</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27855,25 +27855,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>334.0784549946969</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>238.8290824856793</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708285</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27915,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27946,13 +27946,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>115.2302539023255</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>36.29946757904878</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,10 +27979,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>31.66886087721419</v>
       </c>
       <c r="S9" t="n">
-        <v>117.2980339485929</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
         <v>192.7632183107638</v>
@@ -28013,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>135.5663557888597</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28034,7 +28034,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>18.15430933923912</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>22.59469128425539</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T10" t="n">
         <v>221.3678187343026</v>
@@ -28070,10 +28070,10 @@
         <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>66.50969266293646</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28146,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.239505050323025e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28532,7 +28532,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>4.111025083571365e-12</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1.449507180950604e-12</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29037,7 +29037,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.571831483409965e-12</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29049,13 +29049,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>6.838300041165674e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29334,13 +29334,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>6.838300041165674e-14</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>6.838300041165674e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29441,7 +29441,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>7.306723593985522e-12</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -29696,7 +29696,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>7.987134448081508e-12</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.84741111297626e-12</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1.913349478854798e-12</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30234,7 +30234,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31047,28 +31047,28 @@
         <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q2" t="n">
         <v>238.1048576151093</v>
@@ -31077,13 +31077,13 @@
         <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,13 +31120,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31138,7 +31138,7 @@
         <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N3" t="n">
         <v>306.8275379829655</v>
@@ -31147,22 +31147,22 @@
         <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S3" t="n">
         <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31223,25 +31223,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085681</v>
+        <v>3.050852781085675</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429374</v>
+        <v>31.24454604429368</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428058</v>
+        <v>117.6180018428056</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286711</v>
+        <v>258.9373162286706</v>
       </c>
       <c r="K5" t="n">
-        <v>388.079914452028</v>
+        <v>388.0799144520273</v>
       </c>
       <c r="L5" t="n">
-        <v>481.447450251179</v>
+        <v>481.4474502511781</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968115</v>
+        <v>535.7030533968104</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610712</v>
+        <v>544.3712888610702</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191505</v>
+        <v>514.0343715191494</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860976</v>
+        <v>438.7164434860968</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634666</v>
+        <v>329.4577782634659</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098736</v>
+        <v>191.6431310098732</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774899003</v>
+        <v>69.5213077489899</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920258</v>
+        <v>13.35510804920255</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868544</v>
+        <v>0.2440682224868539</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030892</v>
+        <v>1.632350146030889</v>
       </c>
       <c r="H6" t="n">
-        <v>15.7650658840352</v>
+        <v>15.76506588403516</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062501</v>
+        <v>56.2015291506249</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475941</v>
+        <v>154.2212916475938</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316638</v>
+        <v>263.5887514316633</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721899</v>
+        <v>354.4276051721893</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658097</v>
+        <v>413.6002979658089</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468678</v>
+        <v>424.547067146867</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374465</v>
+        <v>388.3776244374457</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872499</v>
+        <v>311.7072835872493</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547504</v>
+        <v>208.36806425475</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632163</v>
+        <v>101.3488976632161</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947729</v>
+        <v>30.32018801947723</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378899</v>
+        <v>6.579516597378887</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757166</v>
+        <v>0.1073914569757164</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528237</v>
+        <v>1.368507528236997</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377988</v>
+        <v>12.16727602377986</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734543</v>
+        <v>41.15475366734535</v>
       </c>
       <c r="J7" t="n">
-        <v>96.7534822463559</v>
+        <v>96.7534822463557</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260805</v>
+        <v>158.9956928260802</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162537</v>
+        <v>203.4597465162533</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399144</v>
+        <v>214.519775539914</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528494</v>
+        <v>209.418974752849</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275353</v>
+        <v>193.4323186275349</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650515004</v>
+        <v>165.5147650515001</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235546</v>
+        <v>114.5938440235544</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054727</v>
+        <v>61.53307486054716</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391207</v>
+        <v>23.84935392391203</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830816</v>
+        <v>5.847259438830806</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656373</v>
+        <v>0.07464586517656358</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>132.3122829933231</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>291.2869367409261</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>436.5636098258717</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>541.5957615840433</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>602.6296390934787</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>612.3808166839016</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>578.253840119091</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>493.5262741662303</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>370.61767849284</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>215.5855378141322</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>78.20676087699499</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2745602137206623</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>17.73463097464135</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>63.22291242095122</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>296.5194861913581</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>398.7070419616803</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>465.2723121730384</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>477.5866858152849</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>436.898513388451</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>350.6495746475636</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>234.3999545349509</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>114.0106430867498</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>34.10815721053863</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>7.401510384057852</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.1208081129062763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>46.29630948017481</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>235.5821576420142</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>217.5982526595399</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>186.1928964099895</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>128.9103103451905</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>69.22054011153097</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>26.82890727735642</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>6.577770693978883</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.08397154077419863</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,19 +31837,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31858,10 +31858,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32074,13 +32074,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,19 +32320,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M18" t="n">
-        <v>575.5951359912046</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071782</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558027</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558027</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,10 +32815,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32864,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558027</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,10 +33052,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067262</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>359.1374415194877</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33338,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558027</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,10 +33526,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558027</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,10 +33763,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460039</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558027</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34456,13 +34456,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L2" t="n">
         <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
         <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646083</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061158</v>
+        <v>16.11138312061155</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520832</v>
+        <v>23.66518529520829</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400581</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198479</v>
+        <v>77.89141170198428</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070474</v>
+        <v>167.9900634070467</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811918</v>
+        <v>245.6810352811909</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695388</v>
+        <v>305.3568201695377</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644803</v>
+        <v>314.9582252644793</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974637</v>
+        <v>283.9361600974627</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308281</v>
+        <v>207.4834477308272</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890171</v>
+        <v>107.1520883890164</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092736</v>
+        <v>27.38366498092708</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573048</v>
+        <v>125.7473124573043</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923158</v>
+        <v>215.8732253923151</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437913</v>
+        <v>271.4662640437905</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635345</v>
+        <v>293.2053550635337</v>
       </c>
       <c r="O6" t="n">
-        <v>245.781379993002</v>
+        <v>245.7813799930012</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729196</v>
+        <v>177.732876172919</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872883</v>
+        <v>68.38629016872844</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554512</v>
+        <v>29.98243465554484</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501537</v>
+        <v>68.57507023501498</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230938</v>
+        <v>75.59399159230898</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761624</v>
+        <v>81.73343028761582</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569253</v>
+        <v>54.97578017569214</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235276</v>
+        <v>27.78676100235245</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>110.2410322142398</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>216.4737587808911</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>305.8293466140561</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>372.283405866206</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>382.9677530873107</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>348.1556286974043</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>262.2932784109608</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>148.3119886183905</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409395</v>
+        <v>46.6508773409397</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>158.6780472169991</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>260.1526621818061</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>323.13827825102</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>346.2449737319515</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>294.3022689440066</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>216.6751672332334</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892906</v>
+        <v>94.41818044892935</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850724</v>
+        <v>49.84612367850744</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563528</v>
+        <v>93.99375335563556</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806455</v>
+        <v>102.3944289806458</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767807</v>
+        <v>107.896613176781</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769682</v>
+        <v>79.14171420769708</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084162</v>
+        <v>48.46489236084184</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35506,10 +35506,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,19 +35968,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M18" t="n">
-        <v>433.4611020691863</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774872</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238449</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113583</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774872</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113583</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295343</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
         <v>426.2724270010451</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774872</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113583</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236320278</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774872</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>219.1556674334661</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789205</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096428</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774872</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113583</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396418</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774872</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113583</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243171</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774872</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113583</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -38104,13 +38104,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
